--- a/layers/master_providerlist_geo_20210309.xlsx
+++ b/layers/master_providerlist_geo_20210309.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CDFCEB-D580-467B-A5D3-C964AB7E6088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provider_masterlist_geo" sheetId="1" r:id="rId1"/>
@@ -5286,7 +5286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
